--- a/downloaded_files/CMPS102_Tutorial-35465.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35465.xlsx
@@ -129,13 +129,13 @@
     <x:t>SARA</x:t>
   </x:si>
   <x:si>
-    <x:t>1240412</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سما محمد حسين محمود ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sama Mohamed Hussein</x:t>
+    <x:t>1240069</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى الحسيني محمد عادل محمد الحسيني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Elhoseny mohammed Adel Elhoseny</x:t>
   </x:si>
   <x:si>
     <x:t>1240326</x:t>
@@ -729,7 +729,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.230624999999996" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="43.540625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1160,7 +1160,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.5694269676</x:v>
+        <x:v>45913.7960139236</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>

--- a/downloaded_files/CMPS102_Tutorial-35465.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35465.xlsx
@@ -1542,7 +1542,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.688821875</x:v>
+        <x:v>45927.478122338</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>

--- a/downloaded_files/CMPS102_Tutorial-35465.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35465.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,15 +76,6 @@
   </x:si>
   <x:si>
     <x:t>Eyad Hossni Mohammed ElBakry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240049</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حبيبه عصام كامل على عقل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habiba essam kamel</x:t>
   </x:si>
   <x:si>
     <x:t>1240221</x:t>
@@ -419,7 +410,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -719,7 +710,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -970,7 +961,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6663675116</x:v>
+        <x:v>45907.6741804745</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1002,7 +993,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6741804745</x:v>
+        <x:v>45907.6753310532</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1034,7 +1025,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6753310532</x:v>
+        <x:v>45907.4149852199</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1062,11 +1053,9 @@
       <x:c r="C10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
+      <x:c r="D10" s="2" t="s"/>
       <x:c r="E10" s="3">
-        <x:v>45907.4149852199</x:v>
+        <x:v>45927.7268904282</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1089,14 +1078,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="D11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s"/>
       <x:c r="E11" s="3">
-        <x:v>45915.286212963</x:v>
+        <x:v>45907.6650409375</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1128,7 +1119,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45913.7960139236</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1160,7 +1151,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.7960139236</x:v>
+        <x:v>45907.6694461458</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1192,7 +1183,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6694461458</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1224,7 +1215,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45907.6667787037</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1256,7 +1247,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6667787037</x:v>
+        <x:v>45907.6746906597</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1288,7 +1279,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6746906597</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1320,7 +1311,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45912.3556372338</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1352,7 +1343,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.3556372338</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1384,7 +1375,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45907.6715989236</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1412,11 +1403,9 @@
       <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45907.6715989236</x:v>
+        <x:v>45907.7067958333</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1439,14 +1428,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45907.7067958333</x:v>
+        <x:v>45909.4289700579</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1478,7 +1469,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4289700579</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1510,7 +1501,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45927.7836087963</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1542,7 +1533,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.478122338</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1574,7 +1565,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.4214491898</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1606,7 +1597,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4214491898</x:v>
+        <x:v>45907.668855706</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1638,7 +1629,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.668855706</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1670,7 +1661,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1702,7 +1693,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.4150058681</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1734,7 +1725,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1751,38 +1742,6 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45907.6646291667</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35465.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35465.xlsx
@@ -1151,7 +1151,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6694461458</x:v>
+        <x:v>45928.9256944444</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>

--- a/downloaded_files/CMPS102_Tutorial-35465.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35465.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -232,6 +232,15 @@
   </x:si>
   <x:si>
     <x:t>Kreem Amr Mohamed Saad Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد سعد السيد محمد دبور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Saad El-Sayed Mohamed Dabour</x:t>
   </x:si>
   <x:si>
     <x:t>1240360</x:t>
@@ -410,7 +419,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -710,7 +719,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1533,7 +1542,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45931.4457999653</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1565,7 +1574,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4214491898</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1597,7 +1606,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.668855706</x:v>
+        <x:v>45907.4214491898</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1629,7 +1638,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45907.668855706</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1661,7 +1670,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1693,7 +1702,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1725,7 +1734,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45907.4150058681</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1742,6 +1751,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45907.6646291667</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35465.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35465.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -232,15 +232,6 @@
   </x:si>
   <x:si>
     <x:t>Kreem Amr Mohamed Saad Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد سعد السيد محمد دبور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Saad El-Sayed Mohamed Dabour</x:t>
   </x:si>
   <x:si>
     <x:t>1240360</x:t>
@@ -419,7 +410,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -719,7 +710,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1542,7 +1533,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45931.4457999653</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1574,7 +1565,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.4214491898</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1606,7 +1597,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4214491898</x:v>
+        <x:v>45907.668855706</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1638,7 +1629,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.668855706</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1670,7 +1661,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1702,7 +1693,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.4150058681</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1734,7 +1725,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1751,38 +1742,6 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45907.6646291667</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
